--- a/Documentation/Change Logs/IBPDI V2.0 change log.xlsx
+++ b/Documentation/Change Logs/IBPDI V2.0 change log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuathiele/Desktop/IBPDI/_CDM/CDM_V2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuathiele/ibpdi git/cdm/Documentation/Change Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA908329-4417-D24F-8BCE-28621B663B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B96E78-445E-8D44-8235-394BB2AAEF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{518BE735-91D0-994C-801D-4FB1302BB870}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{518BE735-91D0-994C-801D-4FB1302BB870}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
   <si>
     <t>Cluster</t>
   </si>
@@ -235,6 +235,111 @@
   </si>
   <si>
     <t>delete (or depricate) stated that not used yet</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>change to CertificateValue (ontology)</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Add pattern https?:\/\/(?:www\.|(?!www))[a-zA-Z0-9][a-zA-Z0-9-]+[a-zA-Z0-9]\.[^\s]{2,}|www\.[a-zA-Z0-9][a-zA-Z0-9-]+[a-zA-Z0-9]\.[^\s]{2,}|https?:\/\/(?:www\.|(?!www))[a-zA-Z0-9]+\.[^\s]{2,}|www\.[a-zA-Z0-9]+\.[^\s]{2,}</t>
+  </si>
+  <si>
+    <t>CertificateUrl</t>
+  </si>
+  <si>
+    <t>IssuingDate</t>
+  </si>
+  <si>
+    <t>correct comment [{"dataType":"dateTime"}]</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>change name to IbpdiProject (ontology)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>change name to IbpdiCategory (ontology)</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>change name to IbpdiGroup (ontology)</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>BookingCurrency</t>
+  </si>
+  <si>
+    <t>Add pattern [^&lt;&gt;\[\]\{\}\|\\\/\(\)°"&amp;=\+§\^~:;\$%!\?\0-\cZ]+$</t>
+  </si>
+  <si>
+    <t>PortfolioAndAssetManagement</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>ReportingDate</t>
+  </si>
+  <si>
+    <t>ReportingCycle</t>
+  </si>
+  <si>
+    <t>PortfolioStrategy</t>
+  </si>
+  <si>
+    <t>StrategyObjectiveUnit</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>StrategyObjectiveUnitSteering</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>IndividualAccountPortfolio</t>
+  </si>
+  <si>
+    <t>PortfolioId</t>
+  </si>
+  <si>
+    <t>change fk name</t>
+  </si>
+  <si>
+    <t>PropertyManagement</t>
+  </si>
+  <si>
+    <t>Dunning</t>
+  </si>
+  <si>
+    <t>RentalPayment</t>
   </si>
 </sst>
 </file>
@@ -602,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83EE764-28B3-F84B-BF7B-E75215E0A336}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,6 +1436,295 @@
         <v>29</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{A83EE764-28B3-F84B-BF7B-E75215E0A336}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Change Logs/IBPDI V2.0 change log.xlsx
+++ b/Documentation/Change Logs/IBPDI V2.0 change log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuathiele/ibpdi git/cdm/Documentation/Change Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B96E78-445E-8D44-8235-394BB2AAEF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC292BCF-33D4-9A4B-B852-0740CB9F8733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{518BE735-91D0-994C-801D-4FB1302BB870}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16300" xr2:uid="{518BE735-91D0-994C-801D-4FB1302BB870}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="102">
   <si>
     <t>Cluster</t>
   </si>
@@ -81,9 +81,6 @@
     <t>TenantCommunication</t>
   </si>
   <si>
-    <t>NumberOfEmployees</t>
-  </si>
-  <si>
     <t>add new attribute</t>
   </si>
   <si>
@@ -340,6 +337,12 @@
   </si>
   <si>
     <t>RentalPayment</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>TagNeighbourhood</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83EE764-28B3-F84B-BF7B-E75215E0A336}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A59"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,10 +770,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -781,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -798,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,13 +818,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -838,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -855,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -872,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -889,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -906,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -923,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -957,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -974,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -991,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -999,16 +1002,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,7 +1019,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
@@ -1025,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1033,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -1042,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
@@ -1059,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -1076,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1084,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -1093,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,7 +1104,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -1110,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
@@ -1127,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,7 +1138,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -1144,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,7 +1155,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -1161,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,7 +1172,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -1178,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1186,7 +1189,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -1195,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1203,16 +1206,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,16 +1223,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,16 +1240,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,16 +1257,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,16 +1274,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,16 +1291,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,16 +1308,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1322,16 +1325,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,16 +1342,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,16 +1359,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,16 +1376,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,16 +1393,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1407,16 +1410,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1424,16 +1427,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>23</v>
       </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1441,16 +1444,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1461,13 +1464,13 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1478,13 +1481,13 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1495,13 +1498,13 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,16 +1512,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,16 +1529,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
         <v>74</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
-        <v>78</v>
-      </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,16 +1546,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,16 +1563,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="C50" t="s">
-        <v>82</v>
-      </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,16 +1580,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1594,16 +1597,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
         <v>85</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>86</v>
       </c>
-      <c r="D52" t="s">
-        <v>88</v>
-      </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,16 +1614,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>85</v>
       </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1628,16 +1631,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,16 +1648,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1662,16 +1665,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,16 +1682,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1696,16 +1699,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1713,16 +1716,33 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
         <v>98</v>
       </c>
-      <c r="C59" t="s">
-        <v>100</v>
-      </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
